--- a/EXCEL_HROADS_TARDE.xlsx
+++ b/EXCEL_HROADS_TARDE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47822980807\OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47822980807\OneDrive\SENAI_HROADS_TARDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Classes</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Atual</t>
+  </si>
+  <si>
+    <t>Classes_Habilidade</t>
   </si>
 </sst>
 </file>
@@ -252,51 +255,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,290 +597,347 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
     <col min="13" max="13" width="14.88671875" customWidth="1"/>
     <col min="17" max="17" width="12.21875" customWidth="1"/>
     <col min="18" max="18" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="K2" s="1" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="G2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="K2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="3">
+        <v>6</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="5">
+        <v>7</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>100</v>
+      </c>
+      <c r="F13" s="8">
+        <v>80</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="10">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8">
+        <v>70</v>
+      </c>
+      <c r="F14" s="8">
+        <v>100</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="10">
+        <v>42446</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="9">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9">
+        <v>75</v>
+      </c>
+      <c r="F15" s="9">
+        <v>60</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="11">
+        <v>43177</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="3">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="3">
+        <v>3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="12"/>
+      <c r="K20" s="3">
         <v>4</v>
       </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="L20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="K21" s="3">
+        <v>4</v>
+      </c>
+      <c r="L21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
         <v>5</v>
       </c>
-      <c r="K5" s="5">
-        <v>2</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="K23" s="3">
         <v>6</v>
       </c>
-      <c r="K6" s="5">
-        <v>3</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G7" s="7">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="L23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="5">
         <v>7</v>
       </c>
-      <c r="K7" s="5">
-        <v>4</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K8" s="5">
-        <v>5</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K9" s="5">
-        <v>6</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K10" s="7">
-        <v>7</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>100</v>
-      </c>
-      <c r="F13" s="11">
-        <v>80</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="13">
-        <v>43483</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="11">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11">
-        <v>70</v>
-      </c>
-      <c r="F14" s="11">
-        <v>100</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="13">
-        <v>42446</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="12">
-        <v>7</v>
-      </c>
-      <c r="E15" s="12">
-        <v>75</v>
-      </c>
-      <c r="F15" s="12">
-        <v>60</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="14">
-        <v>43177</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="15"/>
+      <c r="L24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
